--- a/medicine/Psychotrope/Brasserie_de_Pécs/Brasserie_de_Pécs.xlsx
+++ b/medicine/Psychotrope/Brasserie_de_Pécs/Brasserie_de_Pécs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Brasserie_de_P%C3%A9cs</t>
+          <t>Brasserie_de_Pécs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Brasserie de Pécs (hongrois : Pécsi Sörfőzde) est une brasserie hongroise basée à Pécs, fondée en 1848 par Leopold Hirschfeld. Son produit phare est à la bière Szalon.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Brasserie_de_P%C3%A9cs</t>
+          <t>Brasserie_de_Pécs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,18 +526,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Histoire du brassage à Pécs
-La tradition brassicole de la ville de Pécs remonte au Moyen Âge, car l'hôpital commande de la bière brassée à partir de l'eau des sources cristallines du Mecsek à partir de 1301[1]
+          <t>Histoire du brassage à Pécs</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tradition brassicole de la ville de Pécs remonte au Moyen Âge, car l'hôpital commande de la bière brassée à partir de l'eau des sources cristallines du Mecsek à partir de 1301
 Après l'expulsion des Turcs (1686), la bière a également joué un rôle dans la lutte contre les épidémies. Puisqu'ils ne pouvaient plus boire d'eau, ou seulement bouillie, craignant l'infection, les habitants brassaient de la bière. Le développement du brassage a également été aidé par la présence des colons autrichiens et bavarois. En 1702, l'empereur Léopold Ier a permis à la ville de facturer un supplément de 15 centimes pour une bière et d'utiliser ce dernier pour entretenir l'hôpital de la ville.
 En 1740, un fléau éclata dans la ville. En 1762, la brasserie de la ville fut louée à Antal Melczer.
-Création et développement de la Brasserie Pécs
-Samuel Hirschfeld[1] a fondé la brasserie en 1848, dans laquelle 4000 hectolitres de bière ont été brassés en 1882. En 1911, elle a adopté le nom de Pannónia Sörfőző Rt., mais une brasserie plus grande a également été construite. En 1874, la manufacture de porcelaine Zsolnay à Pécs fabriquait des chopes à bière artistiques pour l'usine. En 1920, une bière de renommée internationale est commercialisée sous le nom de Pannonia Double Malt Beer, déjà protégée par un brevet. En 1936, l'activité se développe avec une station d'épuration.
-En 1942, deux nouvelles bières sont apparues sur le marché, appelées Komlólelke (bière brune) et Aranyászok. La modernisation de la brasserie a commencé en 1958, après quoi elle atteint une capacité annuelle de 250 000 hl.
-Dans le domaine de la production de bière, la construction de la nouvelle brasserie de la Brasserie Pannonia à Pécs a été le premier investissement majeur avec la construction de la chaufferie et de la centrale électrique. Une autre modernisation a eu lieu en 1987, qui s'est achevée en 1991. Le brassage enzymatique et la fermentation sous pression ont été mis en œuvre. En 1989, sous la licence de la brasserie Gilde à Hanovre, la production de bières Gilde a commencé en Hongrie, pour laquelle la brasserie Gilde a fourni une technologie et des équipements modernes. La bière Gold Fassl est également produite sous licence.
-L'usine a été achetée par la société Ottakringer-Wenckheim en 1993[2].
-Aujourd'hui
-En 2000, Pécsi Sörfőzde Rt. était détenue à 78 % par la société autrichienne Ottakringer Getränke AG. En 2017, Pécsi Sörfőzde Zrt a vendu plus de 99 % de sa participation aux sociétés d'investissement Tamás Szemerey et Zoltán Szemerey, MAVA Befektetési Kft. Et Bankonzult Kft[3]. Selon le communiqué de presse, les nouveaux propriétaires avait l'intention de moderniser l'entreprise tout en conservant les traditions[3].
-Dans la brasserie Pécs depuis 2018, les bières sont traditionnellement brassées selon la loi allemande sur la pureté de 1516 (Reinheitsgebot), les produits ne contiennent donc que du malt, du houblon et de l'eau (le maïs a été supprimé comme ingrédient et l'acide ascorbique n'est plus utilisé).
 </t>
         </is>
       </c>
@@ -536,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Brasserie_de_P%C3%A9cs</t>
+          <t>Brasserie_de_Pécs</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,10 +560,90 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Création et développement de la Brasserie Pécs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Samuel Hirschfeld a fondé la brasserie en 1848, dans laquelle 4000 hectolitres de bière ont été brassés en 1882. En 1911, elle a adopté le nom de Pannónia Sörfőző Rt., mais une brasserie plus grande a également été construite. En 1874, la manufacture de porcelaine Zsolnay à Pécs fabriquait des chopes à bière artistiques pour l'usine. En 1920, une bière de renommée internationale est commercialisée sous le nom de Pannonia Double Malt Beer, déjà protégée par un brevet. En 1936, l'activité se développe avec une station d'épuration.
+En 1942, deux nouvelles bières sont apparues sur le marché, appelées Komlólelke (bière brune) et Aranyászok. La modernisation de la brasserie a commencé en 1958, après quoi elle atteint une capacité annuelle de 250 000 hl.
+Dans le domaine de la production de bière, la construction de la nouvelle brasserie de la Brasserie Pannonia à Pécs a été le premier investissement majeur avec la construction de la chaufferie et de la centrale électrique. Une autre modernisation a eu lieu en 1987, qui s'est achevée en 1991. Le brassage enzymatique et la fermentation sous pression ont été mis en œuvre. En 1989, sous la licence de la brasserie Gilde à Hanovre, la production de bières Gilde a commencé en Hongrie, pour laquelle la brasserie Gilde a fourni une technologie et des équipements modernes. La bière Gold Fassl est également produite sous licence.
+L'usine a été achetée par la société Ottakringer-Wenckheim en 1993.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Brasserie_de_Pécs</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brasserie_de_P%C3%A9cs</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Aujourd'hui</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2000, Pécsi Sörfőzde Rt. était détenue à 78 % par la société autrichienne Ottakringer Getränke AG. En 2017, Pécsi Sörfőzde Zrt a vendu plus de 99 % de sa participation aux sociétés d'investissement Tamás Szemerey et Zoltán Szemerey, MAVA Befektetési Kft. Et Bankonzult Kft. Selon le communiqué de presse, les nouveaux propriétaires avait l'intention de moderniser l'entreprise tout en conservant les traditions.
+Dans la brasserie Pécs depuis 2018, les bières sont traditionnellement brassées selon la loi allemande sur la pureté de 1516 (Reinheitsgebot), les produits ne contiennent donc que du malt, du houblon et de l'eau (le maïs a été supprimé comme ingrédient et l'acide ascorbique n'est plus utilisé).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brasserie_de_Pécs</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brasserie_de_P%C3%A9cs</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Marques connues de la Brasserie Pécs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Entre parenthèses sont indiqués des traductions des noms des produits pour faciliter la compréhension.
 Pécsi Prémium
